--- a/W1D2 - ESERCIZIO 2.xlsx
+++ b/W1D2 - ESERCIZIO 2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tutto\Famiglia\Epicode\Corso\0.1 EXCEL\02. LEZIONE PRATICA W1D2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C252AAED-4243-4990-84DE-30107D241BDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F59CA2E8-A16A-4487-A632-113FB0820CC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -667,9 +667,6 @@
     <t>QUANTI COMUNI HANNO PIU' DI 100 ABITANTI?</t>
   </si>
   <si>
-    <t>QUANTI COMUNI INZIIANO CON LA LETTERA C?</t>
-  </si>
-  <si>
     <t>QUANTI ABITANTI CI SONO IN TOTALE?</t>
   </si>
   <si>
@@ -745,6 +742,9 @@
       <t xml:space="preserve"> ZERI</t>
     </r>
   </si>
+  <si>
+    <t>QUANTI COMUNI INIZIANO CON LA LETTERA C?</t>
+  </si>
 </sst>
 </file>
 
@@ -758,7 +758,7 @@
     <numFmt numFmtId="168" formatCode="&quot;€&quot;\ #,##0.00"/>
     <numFmt numFmtId="169" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="170" formatCode="_-[$€]\ * #,##0.00_-;\-[$€]\ * #,##0.00_-;_-[$€]\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="172" formatCode="#,##0.00\ &quot;€&quot;"/>
+    <numFmt numFmtId="171" formatCode="#,##0.00\ &quot;€&quot;"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -975,7 +975,7 @@
     <xf numFmtId="169" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="170" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1006,6 +1006,8 @@
     <xf numFmtId="168" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="168" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="168" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="2" fillId="4" borderId="4" xfId="6" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="2" fillId="0" borderId="0" xfId="6" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="6" quotePrefix="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1015,8 +1017,7 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="4" borderId="4" xfId="6" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="2" fillId="0" borderId="0" xfId="6" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="Comma [0]" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -1031,8 +1032,73 @@
     <cellStyle name="Valuta 2" xfId="7" xr:uid="{207091F5-721C-455F-B370-D6B4AD03B231}"/>
     <cellStyle name="Valuta_gestione clienti(out)-1" xfId="4" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="8">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF3300"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF3300"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF3300"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF3300"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF3300"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF3300"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF3300"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1335,7 +1401,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
+      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1352,34 +1418,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="102.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
-        <v>201</v>
-      </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
+      <c r="A1" s="32" t="s">
+        <v>200</v>
+      </c>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
     </row>
     <row r="2" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G2" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="H2" s="34">
+        <v>206</v>
+      </c>
+      <c r="H2" s="31">
         <f>AVERAGE(IMPONIBILE)</f>
         <v>493945.94594594592</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="34" t="s">
         <v>184</v>
       </c>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="E3" s="33">
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="E3" s="30">
         <v>0.2</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="H3" s="34">
+        <v>205</v>
+      </c>
+      <c r="H3" s="31">
         <f>AVERAGEIF(IMPONIBILE,"&lt;&gt;0")</f>
         <v>529739.13043478259</v>
       </c>
@@ -1395,18 +1461,18 @@
         <v>187</v>
       </c>
       <c r="D4" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>201</v>
+      </c>
+      <c r="F4" s="14" t="s">
         <v>204</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="G4" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="F4" s="14" t="s">
-        <v>205</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="H4" s="34">
+      <c r="H4" s="31">
         <f>SUM(IMPONIBILE)</f>
         <v>73104000</v>
       </c>
@@ -8901,7 +8967,7 @@
       <c r="A331" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B331" t="s">
+      <c r="B331" s="35" t="s">
         <v>8</v>
       </c>
       <c r="C331" s="9">
@@ -9133,6 +9199,11 @@
     <mergeCell ref="A3:C3"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
+  <conditionalFormatting sqref="B5:B340">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>B5="Ufficio"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
@@ -10621,7 +10692,7 @@
   <dimension ref="A1:E110"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -10641,10 +10712,10 @@
         <v>186</v>
       </c>
       <c r="D1" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="E1" s="12" t="s">
         <v>199</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
@@ -10702,7 +10773,7 @@
         <v>3</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>196</v>
+        <v>207</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
@@ -10725,7 +10796,7 @@
         <v>35</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
@@ -10748,7 +10819,7 @@
         <v>48</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">

--- a/W1D2 - ESERCIZIO 2.xlsx
+++ b/W1D2 - ESERCIZIO 2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tutto\Famiglia\Epicode\Corso\0.1 EXCEL\02. LEZIONE PRATICA W1D2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F59CA2E8-A16A-4487-A632-113FB0820CC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA508974-D509-4712-A2F9-DB3D7E868D4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="24" yWindow="24" windowWidth="23016" windowHeight="12216" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Assoluti_Iva" sheetId="15" r:id="rId1"/>
@@ -38,7 +38,7 @@
     <definedName name="DATI">Assoluti_Iva!$A$4:$C$340</definedName>
     <definedName name="HD">Assoluti_Iva!$A$82:$C$105</definedName>
     <definedName name="impo">Assoluti_Iva!$C$5:$C$340</definedName>
-    <definedName name="IMPONIBILE">Assoluti_Iva!$C$5:$C$152</definedName>
+    <definedName name="IMPONIBILE">Assoluti_Iva!$C$5:$C$340</definedName>
     <definedName name="import">LOGICA!$D$2:$D$80</definedName>
     <definedName name="IMPORTO">#REF!</definedName>
     <definedName name="IO_B">Assoluti_Iva!$A$66:$C$80</definedName>
@@ -1008,6 +1008,7 @@
     <xf numFmtId="168" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="2" fillId="4" borderId="4" xfId="6" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="171" fontId="2" fillId="0" borderId="0" xfId="6" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="6" quotePrefix="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1017,7 +1018,6 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="Comma [0]" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -1032,24 +1032,7 @@
     <cellStyle name="Valuta 2" xfId="7" xr:uid="{207091F5-721C-455F-B370-D6B4AD03B231}"/>
     <cellStyle name="Valuta_gestione clienti(out)-1" xfId="4" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
   </cellStyles>
-  <dxfs count="8">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF3300"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <fill>
         <patternFill>
@@ -1061,34 +1044,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFF3300"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF3300"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF3300"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF3300"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1399,9 +1354,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B64CFBE5-9F9D-4F9A-8F99-5524B5637A72}">
   <dimension ref="A1:H340"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
+      <selection pane="bottomLeft" activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1413,16 +1368,16 @@
     <col min="5" max="5" width="8.77734375" style="7"/>
     <col min="6" max="6" width="17.77734375" style="7" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="26.6640625" style="7" customWidth="1"/>
-    <col min="8" max="8" width="14.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.33203125" style="7" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="8.77734375" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="102.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="33" t="s">
         <v>200</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
     </row>
     <row r="2" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G2" s="7" t="s">
@@ -1430,15 +1385,15 @@
       </c>
       <c r="H2" s="31">
         <f>AVERAGE(IMPONIBILE)</f>
-        <v>493945.94594594592</v>
+        <v>519442.42424242425</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="35" t="s">
         <v>184</v>
       </c>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
       <c r="E3" s="30">
         <v>0.2</v>
       </c>
@@ -1447,7 +1402,7 @@
       </c>
       <c r="H3" s="31">
         <f>AVERAGEIF(IMPONIBILE,"&lt;&gt;0")</f>
-        <v>529739.13043478259</v>
+        <v>539044.02515723265</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -1474,7 +1429,7 @@
       </c>
       <c r="H4" s="31">
         <f>SUM(IMPONIBILE)</f>
-        <v>73104000</v>
+        <v>171416000</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -8967,7 +8922,7 @@
       <c r="A331" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B331" s="35" t="s">
+      <c r="B331" s="32" t="s">
         <v>8</v>
       </c>
       <c r="C331" s="9">
@@ -9200,7 +9155,7 @@
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="B5:B340">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>B5="Ufficio"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9215,7 +9170,7 @@
   <dimension ref="A1:H80"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -10691,8 +10646,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CBD8C3F-135D-4280-BD95-8C23E6C981DD}">
   <dimension ref="A1:E110"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -10726,11 +10681,11 @@
         <v>125</v>
       </c>
       <c r="D2" s="23">
-        <f>VLOOKUP("OSSENIGO",A2:B110,2,0)</f>
-        <v>125</v>
+        <f>SUMIF(comuni,"OSSENIGO",abitanti)</f>
+        <v>130</v>
       </c>
       <c r="E2" s="23">
-        <f>VLOOKUP("AVIO",A2:B110,2,0)</f>
+        <f>SUMIF(comuni,"AVIO",abitanti)</f>
         <v>5</v>
       </c>
     </row>
@@ -10807,8 +10762,8 @@
         <v>5</v>
       </c>
       <c r="D9" s="23">
-        <f>COUNTIFS(abitanti,"&gt;=10",abitanti,"&lt;=100")</f>
-        <v>53</v>
+        <f>COUNTIFS(abitanti,"&gt;10",abitanti,"&lt;100")</f>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
